--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001568.937354796</v>
+        <v>2999311.915445713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>75.98873000807177</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.455314574987</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>22.81744246378295</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.283679164003906</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>13.808901714272</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>124.7906123341839</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.26879610204018</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4415385849326</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.71883721364166</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.80057351588529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.7241361829037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.70358683203048</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>60.3047617882996</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>45.41839567467478</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785988</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.3848965658445</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.7576914549236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102225</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.0693524876979</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143316</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164198</v>
       </c>
       <c r="S37" t="n">
-        <v>188.712770043037</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877643</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172079</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354231</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481861</v>
+        <v>285.4667430481857</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006322</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636898</v>
+        <v>188.7051276880616</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800412</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797639</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433846</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404354</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.779878295728</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124531</v>
+        <v>49.3772837912461</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145454</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128491</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575764</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800408</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797639</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433846</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404354</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.779878295728</v>
+        <v>97.77987829572896</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124531</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145454</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128491</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575764</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.271684480035</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797639</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433846</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404354</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572803</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124543</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575764</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2170.551953897502</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2170.551953897502</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2170.551953897502</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2170.551953897502</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.5174848136515</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>527.5174848136515</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>527.5174848136515</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>527.5174848136515</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>527.5174848136515</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.5174848136515</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.879478346266</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>944.9169614058544</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>586.651262799104</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>200.8630102008597</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>193.9175094516563</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>179.9941053902472</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>179.9941053902472</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1700.479318410388</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4990,19 +4990,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551614</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464784</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423049</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423049</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423049</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9043113423049</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="F13" t="n">
-        <v>114.0143638443946</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>231.3605683725688</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,16 +5197,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208131</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838524</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858351</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423049</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1732.058578925877</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1099.399357643587</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L17" t="n">
-        <v>1963.918173296941</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5540,19 +5540,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,7 +5592,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015822</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736753</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736753</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736753</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736753</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1675.042594847043</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.939727972687</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.2552397668</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>841.8380697298393</v>
+        <v>811.5418683145537</v>
       </c>
       <c r="X19" t="n">
-        <v>613.8485188318219</v>
+        <v>779.4200768843668</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.8485188318219</v>
+        <v>558.6274977408367</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,34 +5738,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5832,19 +5832,19 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
@@ -5853,16 +5853,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.525731183237</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>360.5895482553301</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>360.5895482553301</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.056813762912</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>928.0672628648947</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.1741960134767</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.525731183237</v>
+        <v>278.5282561439496</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1703.743681135267</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.640814260911</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1159.956326055024</v>
+        <v>1198.376021052698</v>
       </c>
       <c r="W25" t="n">
-        <v>1159.956326055024</v>
+        <v>908.9588510157369</v>
       </c>
       <c r="X25" t="n">
-        <v>931.9667751570071</v>
+        <v>680.9693001177195</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.1741960134768</v>
+        <v>460.1767209741894</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839444</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839444</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786342</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345674</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>1622.425187676632</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8321102045701</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8321102045701</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8321102045701</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8321102045701</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839444</v>
+        <v>359.9421627066598</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6655,16 +6655,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783402</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413795</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433622</v>
+        <v>909.27315417834</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998321</v>
+        <v>688.4805750348098</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3629.948228594053</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,28 +6789,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,19 +6871,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
         <v>1453.060509258584</v>
@@ -6892,16 +6892,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783406</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413798</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433625</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998324</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>666.4259024757223</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1530.944718129077</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>276.7383249626682</v>
+        <v>263.4302928425585</v>
       </c>
       <c r="C37" t="n">
-        <v>276.7383249626682</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>276.7383249626682</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>276.7383249626682</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>276.7383249626682</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8197870963067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308509</v>
+        <v>141.7293596308512</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152481</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992651</v>
+        <v>664.3677264992664</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834335</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.02453427572</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931655</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100835</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988871</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988871</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349439</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452708</v>
+        <v>1464.626824743982</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112094</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439949</v>
+        <v>922.9733187312244</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367309</v>
+        <v>634.6230732280064</v>
       </c>
       <c r="X37" t="n">
-        <v>496.463979572456</v>
+        <v>634.6230732280064</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.7383249626682</v>
+        <v>444.0118331390554</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,64 +7160,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463053</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689699</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3783.446538019154</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215099</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416703</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774082</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430886</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932518</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160452</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819755</v>
+        <v>145.4370786819763</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477368</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490202</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499232</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860151</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032971</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719037</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123959</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.00572382956</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.76947260446</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.45249012206</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195777</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937963</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849076</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899133</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036759</v>
+        <v>922.7139997036724</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143015</v>
@@ -7397,64 +7397,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215095</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416703</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774082</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430886</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932518</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160442</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819755</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477368</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490202</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499233</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860151</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032971</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719037</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123959</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.00572382956</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.76947260446</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122059</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195776</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937963</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849076</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899132</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036757</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483401</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542182</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232736</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679681</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7710,43 +7710,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215041</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416707</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499216</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860148</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032967</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719033</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829555</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604455</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122055</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195772</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036702</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>34.13957882094024</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>316.9032015413811</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>37.13651117804432</v>
       </c>
       <c r="N20" t="n">
-        <v>344.7025836476849</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>19.79750571619275</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>128.7323010770069</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>19.79750571619502</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>238.2160185885863</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>48.65289230147067</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.1543674071817</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>295.4822118493993</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>315.1679217109329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476959</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.7570121569881</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>10.31347632938818</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>130.8301120625275</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>193.9090818731519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.860517169191028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>132.5432342665974</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>159.2441874878696</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>134.4135845072625</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6409116931836957</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935324</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102229</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298074</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581642</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345263</v>
+        <v>144.3647927345259</v>
       </c>
       <c r="G37" t="n">
-        <v>80.9002004829254</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259158</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.8758973816424</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>28.82327037562786</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.117772954894463e-12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-5.897504706808832e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.734079877584008e-12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-7.602807272633072e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752515.9238884005</v>
+        <v>752515.9238884008</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="G2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.948363522</v>
+      </c>
+      <c r="I2" t="n">
         <v>655184.9483635221</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>655184.9483635228</v>
       </c>
-      <c r="I2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635223</v>
-      </c>
       <c r="K2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="L2" t="n">
         <v>655184.9483635228</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635224</v>
       </c>
       <c r="M2" t="n">
         <v>655683.5513909023</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696687</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641503</v>
+        <v>36735.10506414977</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918989</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811439</v>
+        <v>18496.05294811452</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740908</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740918</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26479,28 +26479,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371367</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="M5" t="n">
-        <v>96472.31657955456</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970486</v>
+        <v>-178816.1839970487</v>
       </c>
       <c r="C6" t="n">
+        <v>411151.6952174964</v>
+      </c>
+      <c r="D6" t="n">
         <v>411151.6952174959</v>
       </c>
-      <c r="D6" t="n">
-        <v>411151.6952174961</v>
-      </c>
       <c r="E6" t="n">
-        <v>-186724.4762027879</v>
+        <v>-186791.6716930136</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.9377906191</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.9377906185</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906192</v>
+        <v>540585.7423003926</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003927</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.7185980257</v>
+        <v>364162.5231078005</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906192</v>
+        <v>540585.7423003935</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="M6" t="n">
-        <v>410227.8627935645</v>
+        <v>410162.178221603</v>
       </c>
       <c r="N6" t="n">
         <v>506686.0307623724</v>
       </c>
       <c r="O6" t="n">
-        <v>543421.1358265224</v>
+        <v>543421.1358265227</v>
       </c>
       <c r="P6" t="n">
-        <v>543421.1358265238</v>
+        <v>543421.1358265227</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018787</v>
+        <v>45.91888133018722</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,11 +26987,11 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.295573980133568e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>175.2354375002175</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.7826240810666</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.4644317781948</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.1947234108078</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>272.4729725277057</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>27.14070391067736</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288404929</v>
+        <v>1.056255288405357</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859279</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33290,7 +33290,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33339,16 +33339,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
         <v>300.7247737883114</v>
@@ -33357,19 +33357,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780294</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837991</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35425,13 +35425,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>432.9015650403121</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371761</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>654.0944880967816</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>576.0576270082711</v>
       </c>
       <c r="N20" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>558.7186215464193</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>667.6534169072337</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>558.7186215464214</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597766</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>636.978004807958</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>385.8441788568712</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147118</v>
+        <v>46.63467190147158</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327245</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.813627458603</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818888</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.913201455945</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110447</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335154</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629858</v>
+        <v>79.45049382629901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>684.7444817995139</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,16 +37555,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>694.2441980687712</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165901</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629124</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887909</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861329</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637032</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564865</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>713.9299079303048</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165901</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629124</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887909</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861329</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637032</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564865</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359135</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>387.0442948008494</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004657</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629119</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.608516012076</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861322</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.328266841232</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637027</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
